--- a/2018/Nordeste/PE/resultado.xlsx
+++ b/2018/Nordeste/PE/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H362"/>
+  <dimension ref="A1:J362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>DS_GENERO</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,6 +574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,6 +674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,6 +774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -794,6 +874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,6 +924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,6 +974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +1024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,6 +1074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1034,6 +1174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1114,6 +1274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1154,6 +1324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1194,6 +1374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1234,6 +1424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1274,6 +1474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1314,6 +1524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1354,6 +1574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1394,6 +1624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1434,6 +1674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1474,6 +1724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1514,6 +1774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1554,6 +1824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1594,6 +1874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1634,6 +1924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1674,6 +1974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1714,6 +2024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1754,6 +2074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1794,6 +2124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1834,6 +2174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1874,6 +2224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1914,6 +2274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1954,6 +2324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1994,6 +2374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2034,6 +2424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2074,6 +2474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2114,6 +2524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2154,6 +2574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2194,6 +2624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2234,6 +2674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2274,6 +2724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2314,6 +2774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2354,6 +2824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2394,6 +2874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2434,6 +2924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2474,6 +2974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2514,6 +3024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2554,6 +3074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2594,6 +3124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2634,6 +3174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2674,6 +3224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2714,6 +3274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2754,6 +3324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2794,6 +3374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2834,6 +3424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2874,6 +3474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2914,6 +3524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2954,6 +3574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2994,6 +3624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3034,6 +3674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3074,6 +3724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3114,6 +3774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3154,6 +3824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3194,6 +3874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3234,6 +3924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3274,6 +3974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3314,6 +4024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3354,6 +4074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3394,6 +4124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3434,6 +4174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3474,6 +4224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3514,6 +4274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3554,6 +4324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3594,6 +4374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3634,6 +4424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3674,6 +4474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3714,6 +4524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3754,6 +4574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3794,6 +4624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3834,6 +4674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3874,6 +4724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3914,6 +4774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3954,6 +4824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3994,6 +4874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4034,6 +4924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4074,6 +4974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4114,6 +5024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4154,6 +5074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4194,6 +5124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4234,6 +5174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4274,6 +5224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4314,6 +5274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4354,6 +5324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4394,6 +5374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4434,6 +5424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4474,6 +5474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4514,6 +5524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4554,6 +5574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4594,6 +5624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4634,6 +5674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4674,6 +5724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4714,6 +5774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4754,6 +5824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4794,6 +5874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4834,6 +5924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4874,6 +5974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4914,6 +6024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4954,6 +6074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4994,6 +6124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5034,6 +6174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5074,6 +6224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5114,6 +6274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5154,6 +6324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5194,6 +6374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5234,6 +6424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5274,6 +6474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5314,6 +6524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5354,6 +6574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5394,6 +6624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5434,6 +6674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5474,6 +6724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5514,6 +6774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5554,6 +6824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5594,6 +6874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5634,6 +6924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5674,6 +6974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5714,6 +7024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5754,6 +7074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5794,6 +7124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5834,6 +7174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5874,6 +7224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5914,6 +7274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5954,6 +7324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5994,6 +7374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6034,6 +7424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6074,6 +7474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6114,6 +7524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6154,6 +7574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6194,6 +7624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6234,6 +7674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6274,6 +7724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6314,6 +7774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6354,6 +7824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6394,6 +7874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6434,6 +7924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6474,6 +7974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6514,6 +8024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6554,6 +8074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6594,6 +8124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6634,6 +8174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6674,6 +8224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6714,6 +8274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6754,6 +8324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6794,6 +8374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6834,6 +8424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6874,6 +8474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6914,6 +8524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6954,6 +8574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6994,6 +8624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7034,6 +8674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7074,6 +8724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7114,6 +8774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7154,6 +8824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7194,6 +8874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7234,6 +8924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7274,6 +8974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7314,6 +9024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7354,6 +9074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7394,6 +9124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7434,6 +9174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7474,6 +9224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7514,6 +9274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7554,6 +9324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7594,6 +9374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7634,6 +9424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7674,6 +9474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7714,6 +9524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7754,6 +9574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7794,6 +9624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7834,6 +9674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7874,6 +9724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7914,6 +9774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7954,6 +9824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7994,6 +9874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8034,6 +9924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8074,6 +9974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8114,6 +10024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8154,6 +10074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8194,6 +10124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8234,6 +10174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8274,6 +10224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8314,6 +10274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8354,6 +10324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8394,6 +10374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8434,6 +10424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8474,6 +10474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8514,6 +10524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8554,6 +10574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8594,6 +10624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8634,6 +10674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8674,6 +10724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8714,6 +10774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8754,6 +10824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8794,6 +10874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8834,6 +10924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8874,6 +10974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8914,6 +11024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8954,6 +11074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8994,6 +11124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9034,6 +11174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9074,6 +11224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9114,6 +11274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9154,6 +11324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9194,6 +11374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9234,6 +11424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9274,6 +11474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9314,6 +11524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9354,6 +11574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9394,6 +11624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9434,6 +11674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9474,6 +11724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9514,6 +11774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9554,6 +11824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9594,6 +11874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9634,6 +11924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9674,6 +11974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9714,6 +12024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9754,6 +12074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9794,6 +12124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9834,6 +12174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9874,6 +12224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9914,6 +12274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9954,6 +12324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9994,6 +12374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10034,6 +12424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10074,6 +12474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10114,6 +12524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10154,6 +12574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10194,6 +12624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10234,6 +12674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10274,6 +12724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10314,6 +12774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10354,6 +12824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10394,6 +12874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10434,6 +12924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10474,6 +12974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10514,6 +13024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10554,6 +13074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10594,6 +13124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10634,6 +13174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10674,6 +13224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10714,6 +13274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -10754,6 +13324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10794,6 +13374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10834,6 +13424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10874,6 +13474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10914,6 +13524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10954,6 +13574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10994,6 +13624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11034,6 +13674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11074,6 +13724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11114,6 +13774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11154,6 +13824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11194,6 +13874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11234,6 +13924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11274,6 +13974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11314,6 +14024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11354,6 +14074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11394,6 +14124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11434,6 +14174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11474,6 +14224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11514,6 +14274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11554,6 +14324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11594,6 +14374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11634,6 +14424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11674,6 +14474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -11714,6 +14524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -11754,6 +14574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -11794,6 +14624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -11834,6 +14674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11874,6 +14724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11914,6 +14774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11954,6 +14824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11994,6 +14874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12034,6 +14924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12074,6 +14974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12114,6 +15024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12154,6 +15074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12194,6 +15124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12234,6 +15174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12274,6 +15224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12314,6 +15274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12354,6 +15324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12394,6 +15374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12434,6 +15424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12474,6 +15474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12514,6 +15524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12554,6 +15574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12594,6 +15624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12634,6 +15674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12674,6 +15724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -12714,6 +15774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -12754,6 +15824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -12794,6 +15874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -12834,6 +15924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -12874,6 +15974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -12914,6 +16024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -12954,6 +16074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -12994,6 +16124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13034,6 +16174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13074,6 +16224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13114,6 +16274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13154,6 +16324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13194,6 +16374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13234,6 +16424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13274,6 +16474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13314,6 +16524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13354,6 +16574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13394,6 +16624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13434,6 +16674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13474,6 +16724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13514,6 +16774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13554,6 +16824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13594,6 +16874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -13634,6 +16924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -13674,6 +16974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -13714,6 +17024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -13754,6 +17074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -13794,6 +17124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -13834,6 +17174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -13874,6 +17224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -13914,6 +17274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -13954,6 +17324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -13994,6 +17374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14034,6 +17424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14074,6 +17474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14114,6 +17524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14154,6 +17574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14194,6 +17624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14234,6 +17674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14274,6 +17724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14314,6 +17774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14354,6 +17824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14394,6 +17874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14434,6 +17924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14474,6 +17974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14514,6 +18024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14554,6 +18074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -14594,6 +18124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -14634,6 +18174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -14674,6 +18224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -14714,6 +18274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -14754,6 +18324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -14794,6 +18374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -14834,6 +18424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -14874,6 +18474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -14912,6 +18522,16 @@
       <c r="H362" t="inlineStr">
         <is>
           <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
     </row>

--- a/2018/Nordeste/PE/resultado.xlsx
+++ b/2018/Nordeste/PE/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J362"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DS_ESTADO_CIVIL</t>
+          <t>DS_ESTADO_CIVIL_x</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS_GRAU_INSTRUCAO</t>
+          <t>DS_GRAU_INSTRUCAO_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO</t>
         </is>
       </c>
     </row>
@@ -534,6 +554,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>170000600612</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,6 +622,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>170000600613</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -634,6 +690,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>170000600614</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,6 +758,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>170000600615</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +826,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>170000600616</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -784,6 +894,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>170000600617</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -834,6 +962,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>170000600618</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -884,6 +1030,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>170000600619</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -934,6 +1098,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>170000600620</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -984,6 +1166,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>170000600621</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NOVO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1034,6 +1234,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>170000606881</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1084,6 +1302,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>170000606882</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>PSTU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1134,6 +1370,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>170000607339</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1184,6 +1438,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>170000607341</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1234,6 +1506,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>170000607342</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1284,6 +1574,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>170000607343</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1334,6 +1642,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>170000607344</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1384,6 +1710,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>170000607347</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1434,6 +1778,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>170000607348</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1484,6 +1846,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>170000607349</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1534,6 +1914,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>170000607350</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1584,6 +1982,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>170000607351</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1634,6 +2050,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>170000607352</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1684,6 +2118,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>170000607353</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1734,6 +2186,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>170000607354</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1784,6 +2254,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>170000607355</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1834,6 +2322,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>170000607357</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1884,6 +2390,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>170000607358</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1934,6 +2458,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>170000607359</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1984,6 +2526,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>170000607360</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2034,6 +2594,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>170000607361</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2084,6 +2662,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>170000607364</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2134,6 +2730,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>170000607374</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2184,6 +2798,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>170000607375</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2234,6 +2866,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>170000607381</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2284,6 +2934,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>170000607382</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2334,6 +3002,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>170000607383</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2384,6 +3070,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>170000607384</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2434,6 +3138,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>170000607385</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2484,6 +3206,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>170000607386</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2534,6 +3274,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>170000607387</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2584,6 +3342,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>170000607388</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2634,6 +3410,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>170000607389</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2684,6 +3478,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>170000607390</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2734,6 +3546,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>170000607404</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2784,6 +3614,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>170000607405</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2834,6 +3682,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>170000607409</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2884,6 +3750,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>170000607411</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2934,6 +3818,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>170000607412</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2984,6 +3886,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>170000607413</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3034,6 +3954,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>170000610278</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3084,6 +4022,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>170000610279</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3134,6 +4090,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>170000610280</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3184,6 +4158,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>170000610281</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3234,6 +4226,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>170000610282</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3284,6 +4294,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>170000610283</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3334,6 +4362,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>170000610284</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3384,6 +4430,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>170000610285</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3434,6 +4498,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>170000610286</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3484,6 +4566,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>170000610287</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3534,6 +4634,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>170000610288</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3584,6 +4702,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>170000610289</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3634,6 +4770,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>170000610290</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3684,6 +4838,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>170000610291</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3734,6 +4906,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>170000610292</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3784,6 +4974,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>170000610293</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3834,6 +5042,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>170000610294</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3884,6 +5110,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>170000610295</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3934,6 +5178,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>170000610296</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3984,6 +5246,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>170000610297</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4034,6 +5314,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>170000614066</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4084,6 +5382,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>170000614069</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4134,6 +5450,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>170000614072</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4184,6 +5518,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>170000614073</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4234,6 +5586,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>170000614075</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4284,6 +5654,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>170000614076</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4334,6 +5722,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>170000614077</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4384,6 +5790,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>170000614106</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4434,6 +5858,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>170000614118</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4484,6 +5926,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>170000614119</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4534,6 +5994,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>170000614120</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4584,6 +6062,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>170000614121</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4634,6 +6130,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>170000614122</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4684,6 +6198,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>170000614123</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4734,6 +6266,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>170000614124</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4784,6 +6334,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>170000614125</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4834,6 +6402,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>170000614126</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4884,6 +6470,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>170000614127</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4934,6 +6538,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>170000614128</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4984,6 +6606,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>170000614136</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5034,6 +6674,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>170000614137</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5084,6 +6742,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>170000614138</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5134,6 +6810,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>170000614139</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5184,6 +6878,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>170000614140</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5234,6 +6946,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>170000614141</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5284,6 +7014,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>170000614142</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5334,6 +7082,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>170000614143</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5384,6 +7150,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>170000614157</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5434,6 +7218,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>170000614158</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5484,6 +7286,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>170000614159</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5534,6 +7354,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>170000614160</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5584,6 +7422,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>170000614161</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5634,6 +7490,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>170000614162</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5684,6 +7558,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>170000614163</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5734,6 +7626,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>170000614164</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5784,6 +7694,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>170000614165</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5834,6 +7762,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>170000614166</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5884,6 +7830,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>170000614167</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5934,6 +7898,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>170000616877</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5984,6 +7966,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>170000616878</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6034,6 +8034,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>170000616879</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6084,6 +8102,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>170000616880</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6134,6 +8170,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>170000616881</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6184,6 +8238,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>170000616882</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6234,6 +8306,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>170000616883</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6284,6 +8374,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>170000616884</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6334,6 +8442,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>170000616885</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6384,6 +8510,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>170000616886</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6434,6 +8578,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>170000616887</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6484,6 +8646,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>170000616888</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6534,6 +8714,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>170000616889</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6584,6 +8782,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>170000616890</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6634,6 +8850,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>170000616891</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6684,6 +8918,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>170000616892</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6734,6 +8986,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>170000616969</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6784,6 +9054,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>170000616970</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6834,6 +9122,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>170000616971</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6884,6 +9190,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>170000616972</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6934,6 +9258,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>170000616973</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6984,6 +9326,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>170000616974</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7034,6 +9394,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>170000616975</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7084,6 +9462,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>170000616976</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7134,6 +9530,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>170000616977</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7184,6 +9598,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>170000616978</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7234,6 +9666,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>170000616979</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7284,6 +9734,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>170000616980</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7334,6 +9802,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>170000616981</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7384,6 +9870,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>170000616982</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7434,6 +9938,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>170000616983</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7484,6 +10006,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>170000616984</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7534,6 +10074,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>170000616985</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7584,6 +10142,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>170000616986</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7634,6 +10210,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>170000616987</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7684,6 +10278,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>170000616988</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7734,6 +10346,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>170000616989</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7784,6 +10414,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>170000616990</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7834,6 +10482,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>170000616991</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7884,6 +10550,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>170000616992</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7934,6 +10618,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>170000616993</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7984,6 +10686,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>170000616994</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8034,6 +10754,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>170000616995</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8084,6 +10822,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>170000616996</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8134,6 +10890,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>170000616997</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8184,6 +10958,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>170000616998</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8234,6 +11026,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>170000616999</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8284,6 +11094,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>170000617081</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8334,6 +11162,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>170000617082</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8384,6 +11230,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>170000617083</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8434,6 +11298,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>170000617084</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8484,6 +11366,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>170000617085</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8534,6 +11434,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>170000617090</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8584,6 +11502,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>170000617100</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8634,6 +11570,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>170000617101</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8684,6 +11638,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>170000617102</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8734,6 +11706,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>170000617103</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8784,6 +11774,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>170000617104</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8834,6 +11842,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>170000617105</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8884,6 +11910,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>170000617106</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8934,6 +11978,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>170000617107</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8984,6 +12046,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>170000617108</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9034,6 +12114,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>170000617109</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9084,6 +12182,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>170000617110</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9134,6 +12250,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>170000617126</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9184,6 +12318,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>170000617128</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9234,6 +12386,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>170000617131</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9284,6 +12454,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>170000617132</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9334,6 +12522,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>170000617133</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9384,6 +12590,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>170000617134</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9434,6 +12658,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>170000617135</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9484,6 +12726,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>170000617136</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9534,6 +12794,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>170000617137</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9584,6 +12862,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>170000617138</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9634,6 +12930,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>170000617152</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9684,6 +12998,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>170000617154</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9734,6 +13066,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>170000617157</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9784,6 +13134,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>170000617161</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9834,6 +13202,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>170000617162</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9884,6 +13270,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>170000617163</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9934,6 +13338,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>170000617164</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9984,6 +13406,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>170000617165</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10034,6 +13474,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>170000617166</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10084,6 +13542,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>170000617183</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10134,6 +13610,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>170000617185</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10184,6 +13678,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>170000617191</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10234,6 +13746,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>170000617294</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10284,6 +13814,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>170000617295</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10334,6 +13882,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>170000617296</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10384,6 +13950,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>170000617297</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10434,6 +14018,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>170000617298</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10484,6 +14086,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>170000617299</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10534,6 +14154,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>170000617300</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10584,6 +14222,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>170000617301</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10634,6 +14290,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>170000617302</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10684,6 +14358,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>170000617303</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10734,6 +14426,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>170000617304</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10784,6 +14494,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>170000617305</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10834,6 +14562,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>170000617306</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10884,6 +14630,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>170000617307</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10934,6 +14698,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>170000617308</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10984,6 +14766,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>170000617309</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11034,6 +14834,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>170000617310</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11084,6 +14902,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>170000617311</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11134,6 +14970,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>170000617312</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11184,6 +15038,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>170000617313</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11234,6 +15106,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>170000617314</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11284,6 +15174,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>170000617315</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11334,6 +15242,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>170000617316</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11384,6 +15310,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>170000617317</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11434,6 +15378,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>170000617318</v>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11484,6 +15446,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>170000617319</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11534,6 +15514,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>170000617320</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11584,6 +15582,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>170000617321</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11634,6 +15650,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>170000617322</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11684,6 +15718,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>170000617323</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11734,6 +15786,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>170000617324</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11784,6 +15854,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>170000617325</v>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11834,6 +15922,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>170000617326</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11884,6 +15990,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>170000617397</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11934,6 +16058,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>170000617398</v>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11984,6 +16126,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>170000617399</v>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12034,6 +16194,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>170000617400</v>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12084,6 +16262,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>170000617401</v>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12134,6 +16330,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>170000617402</v>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12184,6 +16398,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>170000617403</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12234,6 +16466,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>170000617404</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12284,6 +16534,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>170000617405</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12334,6 +16602,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>170000617406</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12384,6 +16670,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>170000617407</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12434,6 +16738,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>170000617408</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12484,6 +16806,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>170000617409</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -12534,6 +16874,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>170000617421</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12584,6 +16942,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>170000617426</v>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -12634,6 +17010,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>170000617427</v>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12684,6 +17078,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>170000617428</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12734,6 +17146,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>170000617429</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12784,6 +17214,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>170000617430</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12834,6 +17282,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>170000617431</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12884,6 +17350,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>170000617432</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12934,6 +17418,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>170000617433</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -12984,6 +17486,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>170000617434</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13034,6 +17554,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>170000617435</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13084,6 +17622,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>170000617436</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13134,6 +17690,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>170000617437</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13184,6 +17758,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>170000617438</v>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13234,6 +17826,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>170000617439</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13284,6 +17894,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>170000617440</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13334,6 +17962,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>170000617441</v>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13384,6 +18030,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>170000617442</v>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13434,6 +18098,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>170000617463</v>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13484,6 +18166,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>170000617464</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -13534,6 +18234,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>170000617467</v>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13584,6 +18302,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M263" t="n">
+        <v>170000617471</v>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13634,6 +18370,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M264" t="n">
+        <v>170000617472</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13684,6 +18438,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>170000617473</v>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13734,6 +18506,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>170000617474</v>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13784,6 +18574,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>170000621458</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13834,6 +18642,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>170000621459</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13884,6 +18710,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>170000621461</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13934,6 +18778,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>170000621462</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13984,6 +18846,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>170000621467</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14034,6 +18914,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>170000621470</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14084,6 +18982,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>170000621472</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14134,6 +19050,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>170000621474</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14184,6 +19118,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M275" t="n">
+        <v>170000621476</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14234,6 +19186,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M276" t="n">
+        <v>170000621482</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14284,6 +19254,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>170000621486</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14334,6 +19322,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M278" t="n">
+        <v>170000621493</v>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14384,6 +19390,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M279" t="n">
+        <v>170000621494</v>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14434,6 +19458,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M280" t="n">
+        <v>170000621498</v>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14484,6 +19526,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M281" t="n">
+        <v>170000621500</v>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -14534,6 +19594,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>170000621501</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -14584,6 +19662,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M283" t="n">
+        <v>170000624075</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>PCO</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14634,6 +19730,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M284" t="n">
+        <v>170000626509</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14684,6 +19798,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>170000626510</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14734,6 +19866,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M286" t="n">
+        <v>170000626511</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14784,6 +19934,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M287" t="n">
+        <v>170000626513</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -14834,6 +20002,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M288" t="n">
+        <v>170000626514</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14884,6 +20070,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M289" t="n">
+        <v>170000626515</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14934,6 +20138,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M290" t="n">
+        <v>170000626516</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -14984,6 +20206,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M291" t="n">
+        <v>170000626517</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15034,6 +20274,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
+        <v>170000626520</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15084,6 +20342,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
+        <v>170000626521</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15134,6 +20410,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M294" t="n">
+        <v>170000626532</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15184,6 +20478,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M295" t="n">
+        <v>170000626533</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15234,6 +20546,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M296" t="n">
+        <v>170000626534</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15284,6 +20614,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M297" t="n">
+        <v>170000626535</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15334,6 +20682,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>170000626536</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15384,6 +20750,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
+        <v>170000626537</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15434,6 +20818,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M300" t="n">
+        <v>170000626538</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -15484,6 +20886,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M301" t="n">
+        <v>170000626539</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -15534,6 +20954,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M302" t="n">
+        <v>170000626540</v>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -15584,6 +21022,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>170000626541</v>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -15634,6 +21090,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M304" t="n">
+        <v>170000626542</v>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -15684,6 +21158,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>170000626543</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -15734,6 +21226,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M306" t="n">
+        <v>170000626560</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -15784,6 +21294,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>170000626565</v>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -15834,6 +21362,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M308" t="n">
+        <v>170000626567</v>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -15884,6 +21430,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M309" t="n">
+        <v>170000626569</v>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -15934,6 +21498,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M310" t="n">
+        <v>170000626570</v>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -15984,6 +21566,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M311" t="n">
+        <v>170000626571</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16034,6 +21634,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M312" t="n">
+        <v>170000626572</v>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16084,6 +21702,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M313" t="n">
+        <v>170000626573</v>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16134,6 +21770,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
+        <v>170000626574</v>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16184,6 +21838,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M315" t="n">
+        <v>170000626575</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16234,6 +21906,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M316" t="n">
+        <v>170000626576</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16284,6 +21974,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M317" t="n">
+        <v>170000626577</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16334,6 +22042,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>170000626578</v>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -16384,6 +22110,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>170000626579</v>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -16434,6 +22178,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>170000626580</v>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -16484,6 +22246,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>170000626609</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -16534,6 +22314,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>170000627477</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -16584,6 +22382,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>170000627481</v>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -16634,6 +22450,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>170000627482</v>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -16684,6 +22518,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M325" t="n">
+        <v>170000627483</v>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -16734,6 +22586,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M326" t="n">
+        <v>170000627484</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -16784,6 +22654,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M327" t="n">
+        <v>170000627485</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -16834,6 +22722,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M328" t="n">
+        <v>170000627486</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -16884,6 +22790,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M329" t="n">
+        <v>170000627487</v>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -16934,6 +22858,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M330" t="n">
+        <v>170000627491</v>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -16984,6 +22926,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>170000627492</v>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -17034,6 +22994,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>170000627493</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -17084,6 +23062,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M333" t="n">
+        <v>170000627495</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -17134,6 +23130,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>170000627496</v>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17184,6 +23198,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>170000627497</v>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -17234,6 +23266,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>170000627498</v>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -17284,6 +23334,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>170000627499</v>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -17334,6 +23402,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>170000627500</v>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -17384,6 +23470,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>170000627502</v>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -17434,6 +23538,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M340" t="n">
+        <v>170000627503</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17484,6 +23606,24 @@
           <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
         </is>
       </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M341" t="n">
+        <v>170000627514</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -17534,6 +23674,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>170000627515</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -17584,6 +23742,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>170000627516</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -17634,6 +23810,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>170000627518</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -17684,6 +23878,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>170000627762</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -17734,6 +23946,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>170000628553</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17784,6 +24014,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>170000628554</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17834,6 +24082,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>170000628555</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17884,6 +24150,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>170000628956</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -17934,6 +24218,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>170000629121</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -17984,6 +24286,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>170000629122</v>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -18034,6 +24354,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>170000629123</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -18084,6 +24422,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>170000629303</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -18134,6 +24490,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>170000629304</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -18184,6 +24558,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>170000629523</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -18234,6 +24626,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>170000629551</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -18284,6 +24694,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M357" t="n">
+        <v>170000629711</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -18334,6 +24762,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M358" t="n">
+        <v>170000629773</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -18384,6 +24830,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M359" t="n">
+        <v>170000629869</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -18434,6 +24898,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M360" t="n">
+        <v>170000629918</v>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -18484,6 +24966,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M361" t="n">
+        <v>170000629920</v>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -18532,6 +25032,24 @@
       <c r="J362" t="inlineStr">
         <is>
           <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M362" t="n">
+        <v>170000629924</v>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>PSOL</t>
         </is>
       </c>
     </row>
